--- a/QuoteTracking.xlsx
+++ b/QuoteTracking.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D21E0AD-5BCD-4D48-804D-4850468BE17C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA19D6B-0CD4-4EC9-9246-12096D43E92A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ActiveQuotes" sheetId="1" r:id="rId1"/>
+    <sheet name="Closed" sheetId="2" r:id="rId2"/>
+    <sheet name="Lost" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>Quote #</t>
   </si>
@@ -35,13 +37,30 @@
   </si>
   <si>
     <t>Customers Quoted</t>
+  </si>
+  <si>
+    <t>Next Contact Date</t>
+  </si>
+  <si>
+    <t>Amount Quoted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +86,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -355,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,11 +397,13 @@
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -384,8 +416,123 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+      <c r="G5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1260C74-F59F-4BCE-B48F-19471EE4FB78}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BE7C32-8905-4C29-BCF6-26E3FBC735A2}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
